--- a/app/config/tables/MyFirstSurvey/Forms/MyFirstSurvey/MyFirstSurvey.xlsx
+++ b/app/config/tables/MyFirstSurvey/Forms/MyFirstSurvey/MyFirstSurvey.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF3414F-F573-49E0-881C-5B0CF2EF9E38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7340A6-279B-460A-8EEF-094DB89585A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="126">
   <si>
     <t>setting_name</t>
   </si>
@@ -149,18 +149,9 @@
     <t>note</t>
   </si>
   <si>
-    <t>display.hint.text.english</t>
-  </si>
-  <si>
-    <t>display.hint.text</t>
-  </si>
-  <si>
     <t>display.adate.helperText</t>
   </si>
   <si>
-    <t>instance_name</t>
-  </si>
-  <si>
     <t>MyFirstSurvey</t>
   </si>
   <si>
@@ -173,7 +164,259 @@
     <t>end screen</t>
   </si>
   <si>
-    <t>This is just a test</t>
+    <t>App de Teste Bandim</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>display.constraint_message.text.english</t>
+  </si>
+  <si>
+    <t>display.constraint_message.text</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>What is your name?</t>
+  </si>
+  <si>
+    <t>How old are you?</t>
+  </si>
+  <si>
+    <t>Age has to between 1-100:</t>
+  </si>
+  <si>
+    <t>(data("AGE")&gt;0 &amp;&amp; data("AGE")&lt;=100) || data("AGE") == 999</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>"D:NS,M:NS,Y:NS"</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>What day is your birthday?</t>
+  </si>
+  <si>
+    <t>end if</t>
+  </si>
+  <si>
+    <t>data("AGE")==999</t>
+  </si>
+  <si>
+    <t>The assign prompt is used to assign values to variables. &lt;br /&gt;
+Here the DOB value has been assgin NS values, since age is 999. &lt;br /&gt;
+DOB: {{data.DOB}}</t>
+  </si>
+  <si>
+    <t>TODAY</t>
+  </si>
+  <si>
+    <t>adate.today()</t>
+  </si>
+  <si>
+    <t>displayDOB</t>
+  </si>
+  <si>
+    <t>displayTODAY</t>
+  </si>
+  <si>
+    <t>Today: {{data.TODAY}} &lt;br /&gt;
+Today  (converted): {{calculates.displayTODAY}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adate.hasUncertainty(data("DOB")) </t>
+  </si>
+  <si>
+    <t>adate.display(data("TODAY"))</t>
+  </si>
+  <si>
+    <t>adate.display(data("DOB"))</t>
+  </si>
+  <si>
+    <t>diffInDays</t>
+  </si>
+  <si>
+    <t>adate.diffInDays(data("DOB"),data("TODAY"))</t>
+  </si>
+  <si>
+    <t>DATE1</t>
+  </si>
+  <si>
+    <t>DATE2</t>
+  </si>
+  <si>
+    <t>With calculations</t>
+  </si>
+  <si>
+    <t>Without calculations</t>
+  </si>
+  <si>
+    <t>select_one</t>
+  </si>
+  <si>
+    <t>select_one_dropdown</t>
+  </si>
+  <si>
+    <t>select_one_with_other</t>
+  </si>
+  <si>
+    <t>Is this the best test app you have ever seen?</t>
+  </si>
+  <si>
+    <t>yesYES</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>YES!!</t>
+  </si>
+  <si>
+    <t>BEST</t>
+  </si>
+  <si>
+    <t>data("BEST")==2</t>
+  </si>
+  <si>
+    <t>Thank you!</t>
+  </si>
+  <si>
+    <t>REG</t>
+  </si>
+  <si>
+    <t>What region do you like the best?</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>Oio</t>
+  </si>
+  <si>
+    <t>Biombo</t>
+  </si>
+  <si>
+    <t>Gabu</t>
+  </si>
+  <si>
+    <t>Cacheu</t>
+  </si>
+  <si>
+    <t>Bafata</t>
+  </si>
+  <si>
+    <t>Quinara</t>
+  </si>
+  <si>
+    <t>Tombali</t>
+  </si>
+  <si>
+    <t>Bubaque</t>
+  </si>
+  <si>
+    <t>Bolama</t>
+  </si>
+  <si>
+    <t>Sao Domingos</t>
+  </si>
+  <si>
+    <t>MSF Bafata</t>
+  </si>
+  <si>
+    <t>Which regions have you visited?</t>
+  </si>
+  <si>
+    <t>REGVIS</t>
+  </si>
+  <si>
+    <t>select_multiple</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>IMG</t>
+  </si>
+  <si>
+    <t>The image prompt is used to take pictures.</t>
+  </si>
+  <si>
+    <t>The select_multiple prompt is used for multiple answers questions.</t>
+  </si>
+  <si>
+    <t>The selcet_one prompt is used for multiple choice questions.</t>
+  </si>
+  <si>
+    <t>The small calculations under an adate prompt can be removed.</t>
+  </si>
+  <si>
+    <t>There are {{calculates.diffInDays}} days between your birthday and today.</t>
+  </si>
+  <si>
+    <t>There is not a NS value in DOB: {{calculates.displayDOB}}.</t>
+  </si>
+  <si>
+    <t>There is a NS value in DOB: {{calculates.displayDOB}}.</t>
+  </si>
+  <si>
+    <t>The adate promt is a custom Bandim prompt that allows for NS values in dates. &lt;br /&gt;
+Your age: {{data.AGE}}.</t>
+  </si>
+  <si>
+    <t>This screen is an example of the text and integer prompt type. &lt;br /&gt;
+Text allows the user to input text. &lt;br /&gt;
+Integer allows the user to input an integer.</t>
+  </si>
+  <si>
+    <t>This is the note prompt type. It is used for writing notes.</t>
+  </si>
+  <si>
+    <t>pizza</t>
+  </si>
+  <si>
+    <t>PIZZA</t>
+  </si>
+  <si>
+    <t>Where do you get the best pizza?</t>
+  </si>
+  <si>
+    <t>Bistro</t>
+  </si>
+  <si>
+    <t>Insonias</t>
+  </si>
+  <si>
+    <t>Bis</t>
+  </si>
+  <si>
+    <t>Ins</t>
+  </si>
+  <si>
+    <t>Please take a photo of something.</t>
+  </si>
+  <si>
+    <t>It is &lt;b&gt; possible &lt;/b&gt; to &lt;i&gt; costomize &lt;/i&gt; your texts by using &lt;font color = "red"&gt; HTML &lt;/font&gt;!</t>
   </si>
 </sst>
 </file>
@@ -183,7 +426,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-406]General"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +474,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -267,7 +516,6 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -278,6 +526,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -561,39 +810,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -602,7 +852,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -618,16 +868,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="3"/>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
         <v>43</v>
@@ -656,16 +906,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -679,86 +924,549 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787AB6FC-E5B2-448F-8A60-6571052C1548}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="53.140625" customWidth="1"/>
     <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="69" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="82.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>116</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" t="s">
+        <v>77</v>
+      </c>
+      <c r="M32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G35" t="s">
+        <v>109</v>
+      </c>
+      <c r="H35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" t="s">
+        <v>81</v>
+      </c>
+      <c r="H36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" t="s">
+        <v>88</v>
+      </c>
+      <c r="G40" t="s">
+        <v>89</v>
+      </c>
+      <c r="H40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F41" t="s">
+        <v>118</v>
+      </c>
+      <c r="G41" t="s">
+        <v>119</v>
+      </c>
+      <c r="H41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" t="s">
+        <v>108</v>
+      </c>
+      <c r="H44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" t="s">
+        <v>103</v>
+      </c>
+      <c r="G45" t="s">
+        <v>102</v>
+      </c>
+      <c r="H45" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48" t="s">
+        <v>107</v>
+      </c>
+      <c r="H48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" t="s">
+        <v>106</v>
+      </c>
+      <c r="G49" t="s">
+        <v>124</v>
+      </c>
+      <c r="H49" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>37</v>
+      </c>
+      <c r="G52" t="s">
+        <v>125</v>
+      </c>
+      <c r="H52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -773,7 +1481,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,302 +1493,497 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="str">
+        <f>"1"</f>
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="str">
+        <f>"2"</f>
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="str">
+        <f>"5"</f>
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+    </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" t="str">
+        <f>"7"</f>
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="str">
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" t="str">
+        <f>"11"</f>
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="D10" s="2"/>
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" t="str">
+        <f>"12"</f>
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" t="str">
+        <f>"13"</f>
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="7" t="str">
+        <f>"14"</f>
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="7" t="str">
+        <f>"15"</f>
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="8"/>
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="7" t="str">
+        <f>"16"</f>
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="8"/>
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
+      <c r="B17" s="7"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
+      <c r="B18" s="7"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
+      <c r="B19" s="7"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
+      <c r="B20" s="7"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
+      <c r="B21" s="7"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
+      <c r="B22" s="7"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
+      <c r="B23" s="7"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
+      <c r="B24" s="7"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
+      <c r="B25" s="7"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
+      <c r="B26" s="7"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
+      <c r="B27" s="7"/>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
+      <c r="B28" s="7"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="8"/>
+      <c r="B29" s="7"/>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="8"/>
+      <c r="B30" s="7"/>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
+      <c r="B31" s="7"/>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="8"/>
+      <c r="B32" s="7"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
+      <c r="B33" s="7"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
+      <c r="B34" s="7"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
+      <c r="B35" s="7"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="8"/>
+      <c r="B36" s="7"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="8"/>
+      <c r="B37" s="7"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="8"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="8"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="8"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="8"/>
+      <c r="B41" s="7"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="8"/>
+      <c r="B42" s="7"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C50" s="8"/>
+      <c r="C50" s="7"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="8"/>
-      <c r="C54" s="8"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="8"/>
-      <c r="C56" s="8"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="8"/>
-      <c r="C59" s="8"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="8"/>
-      <c r="C60" s="8"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="8"/>
-      <c r="C62" s="8"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="8"/>
-      <c r="C63" s="8"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="8"/>
-      <c r="C65" s="8"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="8"/>
-      <c r="C68" s="8"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="8"/>
+      <c r="B69" s="7"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="8"/>
+      <c r="B70" s="7"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="8"/>
+      <c r="B71" s="7"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="8"/>
+      <c r="B72" s="7"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="8"/>
+      <c r="B73" s="7"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="8"/>
+      <c r="B74" s="7"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="8"/>
+      <c r="B75" s="7"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="8"/>
+      <c r="B77" s="7"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="8"/>
+      <c r="B78" s="7"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="8"/>
+      <c r="B79" s="7"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="8"/>
+      <c r="B80" s="7"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="8"/>
+      <c r="B81" s="7"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="8"/>
+      <c r="B82" s="7"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="8"/>
+      <c r="B83" s="7"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="8"/>
+      <c r="B84" s="7"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="8"/>
+      <c r="B85" s="7"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="8"/>
+      <c r="B86" s="7"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="8"/>
+      <c r="B87" s="7"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="8"/>
+      <c r="B88" s="7"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="8"/>
+      <c r="B89" s="7"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="8"/>
+      <c r="B90" s="7"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="8"/>
+      <c r="B91" s="7"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="8"/>
+      <c r="B92" s="7"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="8"/>
+      <c r="B93" s="7"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="8"/>
+      <c r="B94" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1091,11 +1994,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,11 +2008,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1124,7 +2051,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,17 +2062,17 @@
     <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1171,11 +2098,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,21 +2112,142 @@
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>28</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C12">
+    <sortCondition ref="A2"/>
+  </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
